--- a/import-specification/devices/battery.xlsx
+++ b/import-specification/devices/battery.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Deray/GitLab/d.hsueh/import-specification/devices/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B544713-6302-954B-A5A8-EAA8F081C00B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="31960" yWindow="2740" windowWidth="22140" windowHeight="14040" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,260 +25,248 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
-  <si>
-    <t xml:space="preserve">Field Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference id for measurement data node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">battery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device unique identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAT12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battery A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device serial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAT11.22.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vendor 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firmware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device firmware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datapoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_E_IMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kWh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total energy to stacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_E_EXP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total energy from stacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_CHARGE_LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_CAPACITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nominal capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_E_STORED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currently stored energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_U_BULK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battery charging voltage DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_U_DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battery voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_U_OC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open circuit voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_OT_TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operating hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_P_DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total battery power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">°C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperatures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATE[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global battery state conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERROR[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global battery error conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QS_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telegrams transmitted (communication quality)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QS_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telegrams received (communication quality)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
+  <si>
+    <t>Field Type</t>
+  </si>
+  <si>
+    <t>Name Attribute</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Reference id for measurement data node</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>2.0.1</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>device type</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>device unique identifier</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>device name</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>device serial</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>device vendor</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>device model</t>
+  </si>
+  <si>
+    <t>firmware</t>
+  </si>
+  <si>
+    <t>device firmware</t>
+  </si>
+  <si>
+    <t>datapoints</t>
+  </si>
+  <si>
+    <t>B_E_IMP</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>Total energy to stacks</t>
+  </si>
+  <si>
+    <t>B_E_EXP</t>
+  </si>
+  <si>
+    <t>Total energy from stacks</t>
+  </si>
+  <si>
+    <t>B_CHARGE_LEVEL</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Charge level</t>
+  </si>
+  <si>
+    <t>B_CAPACITY</t>
+  </si>
+  <si>
+    <t>Ah</t>
+  </si>
+  <si>
+    <t>Nominal capacity</t>
+  </si>
+  <si>
+    <t>B_E_STORED</t>
+  </si>
+  <si>
+    <t>Currently stored energy</t>
+  </si>
+  <si>
+    <t>B_U_BULK</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Battery charging voltage DC</t>
+  </si>
+  <si>
+    <t>B_U_DC</t>
+  </si>
+  <si>
+    <t>Battery voltage</t>
+  </si>
+  <si>
+    <t>B_U_OC</t>
+  </si>
+  <si>
+    <t>Open circuit voltage</t>
+  </si>
+  <si>
+    <t>B_OT_TOTAL</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Operating hours</t>
+  </si>
+  <si>
+    <t>B_P_DC</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Total battery power</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Temperatures</t>
+  </si>
+  <si>
+    <t>Global battery state conditions</t>
+  </si>
+  <si>
+    <t>Global battery error conditions</t>
+  </si>
+  <si>
+    <t>QS_TX</t>
+  </si>
+  <si>
+    <t>Telegrams transmitted (communication quality)</t>
+  </si>
+  <si>
+    <t>2.0.9</t>
+  </si>
+  <si>
+    <t>QS_RX</t>
+  </si>
+  <si>
+    <t>Telegrams received (communication quality)</t>
+  </si>
+  <si>
+    <t>&lt;device id=“1“ type=“battery“&gt;</t>
+  </si>
+  <si>
+    <t>&lt;uid&gt;BAT12345&lt;/uid&gt;</t>
+  </si>
+  <si>
+    <t>&lt;name&gt;Battery A&lt;/name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;serial&gt;BAT11.22.33&lt;/serial&gt;</t>
+  </si>
+  <si>
+    <t>&lt;vendor&gt;vendor 123&lt;/vendor&gt;</t>
+  </si>
+  <si>
+    <t>&lt;model&gt;&lt;/model&gt;</t>
+  </si>
+  <si>
+    <t>&lt;firmware&gt;1.23.3&lt;/firmware&gt;</t>
+  </si>
+  <si>
+    <t>T[1…x]</t>
+  </si>
+  <si>
+    <t>STATE[1…x]</t>
+  </si>
+  <si>
+    <t>ERROR[1…x]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -293,7 +286,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -301,81 +294,354 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P19" activeCellId="0" sqref="P19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,7 +673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -423,13 +689,15 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -447,13 +715,15 @@
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -470,133 +740,135 @@
         <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -607,18 +879,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -629,18 +901,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -651,18 +923,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -673,18 +945,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -695,18 +967,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -717,18 +989,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -739,18 +1011,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -761,18 +1033,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -783,18 +1055,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -805,18 +1077,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -827,16 +1099,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -847,16 +1119,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -867,16 +1139,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -884,19 +1156,19 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -904,14 +1176,13 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>

--- a/import-specification/devices/battery.xlsx
+++ b/import-specification/devices/battery.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>Field Type</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>&lt;model&gt;&lt;/model&gt;</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>bus address</t>
+  </si>
+  <si>
+    <t>&lt;address&gt;1&lt;/address&gt;</t>
   </si>
   <si>
     <t>firmware</t>
@@ -584,7 +593,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,21 +787,24 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
-        <v>38</v>
+      <c r="H10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -806,7 +818,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -820,41 +832,41 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
@@ -862,7 +874,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -876,7 +888,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -890,41 +902,41 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>64</v>
@@ -932,46 +944,60 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
       </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/battery.xlsx
+++ b/import-specification/devices/battery.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>Field Type</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>Currently stored energy</t>
+  </si>
+  <si>
+    <t>B_I_DC</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Ladestrom (DC)</t>
   </si>
   <si>
     <t>B_OT_TOTAL</t>
@@ -593,7 +602,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,10 +931,10 @@
         <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -933,13 +942,13 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -947,10 +956,10 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>67</v>
@@ -963,8 +972,11 @@
       <c r="B22" t="s">
         <v>68</v>
       </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,10 +984,10 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -983,10 +995,10 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -994,10 +1006,21 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/battery.xlsx
+++ b/import-specification/devices/battery.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t>Field Type</t>
   </si>
@@ -143,72 +143,255 @@
     <t>Nominal capacity</t>
   </si>
   <si>
-    <t>B_CHARGE_LEVEL</t>
+    <t>B_E_CHARGE_AC</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>Chargeable Energy</t>
+  </si>
+  <si>
+    <t>B_E_DISCHARGE_AC</t>
+  </si>
+  <si>
+    <t>Dischargeable Energy</t>
+  </si>
+  <si>
+    <t>B_E_EXP</t>
+  </si>
+  <si>
+    <t>Total energy from stacks</t>
+  </si>
+  <si>
+    <t>B_E_EXP_AC</t>
+  </si>
+  <si>
+    <t>Energy export from storage system AC</t>
+  </si>
+  <si>
+    <t>B_E_IMP</t>
+  </si>
+  <si>
+    <t>Total energy to stacks</t>
+  </si>
+  <si>
+    <t>B_E_IMP_AC</t>
+  </si>
+  <si>
+    <t>Energy import to storage system AC</t>
+  </si>
+  <si>
+    <t>B_E_INT_EXP</t>
+  </si>
+  <si>
+    <t>erzeugte Energie pro Intervall (geliefert)</t>
+  </si>
+  <si>
+    <t>B_E_INT_IMP</t>
+  </si>
+  <si>
+    <t>erzeugte Energie pro Intervall (bezogen)</t>
+  </si>
+  <si>
+    <t>B_E_STORED</t>
+  </si>
+  <si>
+    <t>Currently stored energy</t>
+  </si>
+  <si>
+    <t>B_F_AC</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>Grid frequency</t>
+  </si>
+  <si>
+    <t>B_I_AC</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Battery AC current</t>
+  </si>
+  <si>
+    <t>B_I_DC</t>
+  </si>
+  <si>
+    <t>Ladestrom (DC)</t>
+  </si>
+  <si>
+    <t>B_LIM_I_CHARGE</t>
+  </si>
+  <si>
+    <t>B_LIM_I_DISCHARGE</t>
+  </si>
+  <si>
+    <t>B_LIM_P_CHARGE</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Maximum charging power</t>
+  </si>
+  <si>
+    <t>B_LIM_P_DISCHARGE</t>
+  </si>
+  <si>
+    <t>Maximum discharging power</t>
+  </si>
+  <si>
+    <t>B_LIM_U_CHARGE</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Charge end voltage</t>
+  </si>
+  <si>
+    <t>B_LIM_U_DISCHARGE</t>
+  </si>
+  <si>
+    <t>B_OT_TOTAL</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Operating Hours</t>
+  </si>
+  <si>
+    <t>B_P_AC</t>
+  </si>
+  <si>
+    <t>Battery power AC</t>
+  </si>
+  <si>
+    <t>B_P_DC</t>
+  </si>
+  <si>
+    <t>Total battery power</t>
+  </si>
+  <si>
+    <t>B_Q_AC</t>
+  </si>
+  <si>
+    <t>VAr</t>
+  </si>
+  <si>
+    <t>Battery reactive power AC</t>
+  </si>
+  <si>
+    <t>B_SOC</t>
   </si>
   <si>
     <t>%</t>
   </si>
   <si>
-    <t>Charge Level</t>
-  </si>
-  <si>
-    <t>B_E_EXP</t>
-  </si>
-  <si>
-    <t>kWh</t>
-  </si>
-  <si>
-    <t>Total energy from stacks</t>
-  </si>
-  <si>
-    <t>B_E_IMP</t>
-  </si>
-  <si>
-    <t>Total energy to stacks</t>
-  </si>
-  <si>
-    <t>B_E_STORED</t>
-  </si>
-  <si>
-    <t>Currently stored energy</t>
-  </si>
-  <si>
-    <t>B_I_DC</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Ladestrom (DC)</t>
-  </si>
-  <si>
-    <t>B_OT_TOTAL</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>Operating Hours</t>
-  </si>
-  <si>
-    <t>B_P_DC</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Total battery power</t>
+    <t>State of Charge</t>
+  </si>
+  <si>
+    <t>B_SOCH</t>
+  </si>
+  <si>
+    <t>Ladezustand (Nennkapazität) in %</t>
+  </si>
+  <si>
+    <t>B_SOH</t>
+  </si>
+  <si>
+    <t>Alterungsbedingter Erhaltungszustand in %</t>
+  </si>
+  <si>
+    <t>B_S_AC</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Battery apparent power AC</t>
+  </si>
+  <si>
+    <t>B_T_CELL[1..x]_[1..x]_[1..x]</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Cell temperature  [°C]</t>
+  </si>
+  <si>
+    <t>B_T_CELL_MAX[1..x]_[1..x]_[1..x]</t>
+  </si>
+  <si>
+    <t>Maximum cell temperature  [°C]</t>
+  </si>
+  <si>
+    <t>B_T_CELL_MIN[1..x]_[1..x]_[1..x]</t>
+  </si>
+  <si>
+    <t>Minimum cell temperature  [°C]</t>
+  </si>
+  <si>
+    <t>B_T_M[1..x]</t>
+  </si>
+  <si>
+    <t>Module temperature [°C]</t>
+  </si>
+  <si>
+    <t>B_T_M_MAX[1..x]</t>
+  </si>
+  <si>
+    <t>Maximum module temperature [°C]</t>
+  </si>
+  <si>
+    <t>B_T_M_MIN[1..x]</t>
+  </si>
+  <si>
+    <t>Minimum module temperature [°C]</t>
+  </si>
+  <si>
+    <t>B_T_U[1..x]</t>
+  </si>
+  <si>
+    <t>Temperature Outside/ Ambient [°C]</t>
+  </si>
+  <si>
+    <t>B_U_AC</t>
+  </si>
+  <si>
+    <t>Battery AC voltage</t>
   </si>
   <si>
     <t>B_U_BULK</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>Battery charging voltage DC</t>
   </si>
   <si>
+    <t>B_U_CELL_AVG</t>
+  </si>
+  <si>
+    <t>Average cell voltage</t>
+  </si>
+  <si>
+    <t>B_U_CELL_MAX[1..x]_[1..x]_[1..x]</t>
+  </si>
+  <si>
+    <t>Maximum cell voltage</t>
+  </si>
+  <si>
+    <t>B_U_CELL_MIN[1..x]_[1..x]_[1..x]</t>
+  </si>
+  <si>
+    <t>Minimum cell voltage</t>
+  </si>
+  <si>
     <t>B_U_DC</t>
   </si>
   <si>
@@ -222,9 +405,6 @@
   </si>
   <si>
     <t>T[1..x]</t>
-  </si>
-  <si>
-    <t>°C</t>
   </si>
   <si>
     <t>Temperatures</t>
@@ -602,7 +782,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +791,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="38.847656" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="54.129639" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="9.283447" bestFit="true" customWidth="true" style="0"/>
@@ -847,10 +1027,10 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -858,13 +1038,13 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
         <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -872,13 +1052,13 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,13 +1066,13 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -900,13 +1080,13 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -914,13 +1094,13 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -928,13 +1108,13 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -942,13 +1122,13 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -956,13 +1136,13 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -970,13 +1150,13 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -984,10 +1164,13 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -995,10 +1178,7 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1006,10 +1186,7 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1017,10 +1194,415 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
         <v>77</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/battery.xlsx
+++ b/import-specification/devices/battery.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t>Field Type</t>
   </si>
@@ -185,13 +185,13 @@
     <t>B_E_INT_EXP</t>
   </si>
   <si>
-    <t>erzeugte Energie pro Intervall (geliefert)</t>
+    <t>Energy export from storage system (interval) DC</t>
   </si>
   <si>
     <t>B_E_INT_IMP</t>
   </si>
   <si>
-    <t>erzeugte Energie pro Intervall (bezogen)</t>
+    <t>Energy import to storage system (interval) DC</t>
   </si>
   <si>
     <t>B_E_STORED</t>
@@ -221,7 +221,7 @@
     <t>B_I_DC</t>
   </si>
   <si>
-    <t>Ladestrom (DC)</t>
+    <t>Charging current DC</t>
   </si>
   <si>
     <t>B_LIM_I_CHARGE</t>
@@ -299,13 +299,13 @@
     <t>B_SOCH</t>
   </si>
   <si>
-    <t>Ladezustand (Nennkapazität) in %</t>
+    <t>State of charge (nominal capacity)</t>
   </si>
   <si>
     <t>B_SOH</t>
   </si>
   <si>
-    <t>Alterungsbedingter Erhaltungszustand in %</t>
+    <t>State of health</t>
   </si>
   <si>
     <t>B_S_AC</t>
@@ -326,19 +326,19 @@
     <t>Cell temperature  [°C]</t>
   </si>
   <si>
-    <t>B_T_CELL_MAX[1..x]_[1..x]_[1..x]</t>
+    <t>B_T_CELL_MAX[1..x]_[1..x]</t>
   </si>
   <si>
     <t>Maximum cell temperature  [°C]</t>
   </si>
   <si>
-    <t>B_T_CELL_MIN[1..x]_[1..x]_[1..x]</t>
+    <t>B_T_CELL_MIN[1..x]_[1..x]</t>
   </si>
   <si>
     <t>Minimum cell temperature  [°C]</t>
   </si>
   <si>
-    <t>B_T_M[1..x]</t>
+    <t>B_T_M[1..x]_[1..x]</t>
   </si>
   <si>
     <t>Module temperature [°C]</t>
@@ -374,19 +374,25 @@
     <t>Battery charging voltage DC</t>
   </si>
   <si>
+    <t>B_U_CELL[1..x]_[1..x]_[1..x]</t>
+  </si>
+  <si>
+    <t>Cell voltage</t>
+  </si>
+  <si>
     <t>B_U_CELL_AVG</t>
   </si>
   <si>
     <t>Average cell voltage</t>
   </si>
   <si>
-    <t>B_U_CELL_MAX[1..x]_[1..x]_[1..x]</t>
+    <t>B_U_CELL_MAX[1..x]_[1..x]</t>
   </si>
   <si>
     <t>Maximum cell voltage</t>
   </si>
   <si>
-    <t>B_U_CELL_MIN[1..x]_[1..x]_[1..x]</t>
+    <t>B_U_CELL_MIN[1..x]_[1..x]</t>
   </si>
   <si>
     <t>Minimum cell voltage</t>
@@ -782,7 +788,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,9 +797,9 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="34.134521" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="54.129639" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="56.557617" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="36.419678" bestFit="true" customWidth="true" style="0"/>
@@ -1555,7 +1561,7 @@
         <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
         <v>130</v>
@@ -1568,6 +1574,9 @@
       <c r="B53" t="s">
         <v>131</v>
       </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
       <c r="D53" t="s">
         <v>132</v>
       </c>
@@ -1603,6 +1612,17 @@
       </c>
       <c r="D56" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/battery.xlsx
+++ b/import-specification/devices/battery.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="148">
   <si>
     <t xml:space="preserve">Field Type</t>
   </si>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">B_E_EXP</t>
   </si>
   <si>
-    <t xml:space="preserve">Total energy from stacks</t>
+    <t xml:space="preserve">Energy export from storage system DC</t>
   </si>
   <si>
     <t xml:space="preserve">B_E_EXP_AC</t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">B_E_IMP</t>
   </si>
   <si>
-    <t xml:space="preserve">Total energy to stacks</t>
+    <t xml:space="preserve">Energy import to storage system DC</t>
   </si>
   <si>
     <t xml:space="preserve">B_E_IMP_AC</t>
@@ -244,9 +244,15 @@
     <t xml:space="preserve">B_LIM_I_CHARGE</t>
   </si>
   <si>
+    <t xml:space="preserve">Maximum charging current</t>
+  </si>
+  <si>
     <t xml:space="preserve">B_LIM_I_DISCHARGE</t>
   </si>
   <si>
+    <t xml:space="preserve">Maximum discharging current</t>
+  </si>
+  <si>
     <t xml:space="preserve">B_LIM_P_CHARGE</t>
   </si>
   <si>
@@ -272,6 +278,9 @@
   </si>
   <si>
     <t xml:space="preserve">B_LIM_U_DISCHARGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discharge end voltage</t>
   </si>
   <si>
     <t xml:space="preserve">B_OT_TOTAL</t>
@@ -566,18 +575,18 @@
   </sheetPr>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.29"/>
   </cols>
@@ -990,13 +999,19 @@
       <c r="B26" s="0" t="s">
         <v>73</v>
       </c>
+      <c r="D26" s="0" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,13 +1019,13 @@
         <v>38</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,13 +1033,13 @@
         <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,13 +1047,13 @@
         <v>38</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,7 +1061,10 @@
         <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1054,13 +1072,13 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,13 +1086,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,13 +1100,13 @@
         <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,13 +1114,13 @@
         <v>38</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,13 +1128,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,13 +1142,13 @@
         <v>38</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,13 +1156,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,13 +1170,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,13 +1184,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,13 +1198,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,13 +1212,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,13 +1226,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1222,13 +1240,13 @@
         <v>38</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,13 +1254,13 @@
         <v>38</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,13 +1268,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,13 +1282,13 @@
         <v>38</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1278,13 +1296,13 @@
         <v>38</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1292,13 +1310,13 @@
         <v>38</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,13 +1324,13 @@
         <v>38</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,13 +1338,13 @@
         <v>38</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1334,13 +1352,13 @@
         <v>38</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,13 +1366,13 @@
         <v>38</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1362,13 +1380,13 @@
         <v>38</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,13 +1394,13 @@
         <v>38</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1390,10 +1408,10 @@
         <v>38</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,10 +1419,10 @@
         <v>38</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1412,10 +1430,10 @@
         <v>38</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,10 +1441,10 @@
         <v>38</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/battery.xlsx
+++ b/import-specification/devices/battery.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>Field Type</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>Charging current DC</t>
+  </si>
+  <si>
+    <t>B_I_DIS_DC</t>
+  </si>
+  <si>
+    <t>Discharging current DC</t>
   </si>
   <si>
     <t>B_LIM_I_CHARGE</t>
@@ -809,7 +815,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1235,6 +1241,9 @@
       <c r="B26" t="s">
         <v>73</v>
       </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
       <c r="D26" t="s">
         <v>74</v>
       </c>
@@ -1257,11 +1266,8 @@
       <c r="B28" t="s">
         <v>77</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>78</v>
-      </c>
-      <c r="D28" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1269,10 +1275,10 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
         <v>80</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
       </c>
       <c r="D29" t="s">
         <v>81</v>
@@ -1286,10 +1292,10 @@
         <v>82</v>
       </c>
       <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
         <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1297,6 +1303,9 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
         <v>85</v>
       </c>
       <c r="D31" t="s">
@@ -1310,11 +1319,8 @@
       <c r="B32" t="s">
         <v>87</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>88</v>
-      </c>
-      <c r="D32" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1322,10 +1328,10 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
         <v>90</v>
-      </c>
-      <c r="C33" t="s">
-        <v>78</v>
       </c>
       <c r="D33" t="s">
         <v>91</v>
@@ -1339,7 +1345,7 @@
         <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
         <v>93</v>
@@ -1353,10 +1359,10 @@
         <v>94</v>
       </c>
       <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
         <v>95</v>
-      </c>
-      <c r="D35" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1364,13 +1370,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
         <v>97</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>98</v>
-      </c>
-      <c r="D36" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1378,10 +1384,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s">
         <v>100</v>
-      </c>
-      <c r="C37" t="s">
-        <v>98</v>
       </c>
       <c r="D37" t="s">
         <v>101</v>
@@ -1395,7 +1401,7 @@
         <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
         <v>103</v>
@@ -1409,10 +1415,10 @@
         <v>104</v>
       </c>
       <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
         <v>105</v>
-      </c>
-      <c r="D39" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1420,13 +1426,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
         <v>107</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>108</v>
-      </c>
-      <c r="D40" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1434,10 +1440,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" t="s">
         <v>110</v>
-      </c>
-      <c r="C41" t="s">
-        <v>108</v>
       </c>
       <c r="D41" t="s">
         <v>111</v>
@@ -1451,7 +1457,7 @@
         <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D42" t="s">
         <v>113</v>
@@ -1465,7 +1471,7 @@
         <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
         <v>115</v>
@@ -1479,7 +1485,7 @@
         <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
         <v>117</v>
@@ -1493,7 +1499,7 @@
         <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
         <v>119</v>
@@ -1507,7 +1513,7 @@
         <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
         <v>121</v>
@@ -1521,7 +1527,7 @@
         <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s">
         <v>123</v>
@@ -1535,7 +1541,7 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D48" t="s">
         <v>125</v>
@@ -1549,7 +1555,7 @@
         <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D49" t="s">
         <v>127</v>
@@ -1563,7 +1569,7 @@
         <v>128</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D50" t="s">
         <v>129</v>
@@ -1577,7 +1583,7 @@
         <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
         <v>131</v>
@@ -1591,7 +1597,7 @@
         <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
         <v>133</v>
@@ -1605,7 +1611,7 @@
         <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D53" t="s">
         <v>135</v>
@@ -1619,7 +1625,7 @@
         <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s">
         <v>137</v>
@@ -1633,7 +1639,7 @@
         <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
         <v>139</v>
@@ -1646,6 +1652,9 @@
       <c r="B56" t="s">
         <v>140</v>
       </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
       <c r="D56" t="s">
         <v>141</v>
       </c>
@@ -1681,6 +1690,17 @@
       </c>
       <c r="D59" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/battery.xlsx
+++ b/import-specification/devices/battery.xlsx
@@ -308,7 +308,7 @@
     <t>B_Q_AC</t>
   </si>
   <si>
-    <t>VAr</t>
+    <t>var</t>
   </si>
   <si>
     <t>Battery reactive power AC</t>
@@ -497,22 +497,23 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -811,7 +812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -823,14 +824,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="34.134521" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="56.557617" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="36.419678" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="34.135" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="56.558" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="36.42" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="11.569" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -1704,10 +1705,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1716,5 +1716,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/import-specification/devices/battery.xlsx
+++ b/import-specification/devices/battery.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t>Field Type</t>
   </si>
@@ -143,6 +143,15 @@
     <t>Nominal capacity</t>
   </si>
   <si>
+    <t>B_DOD</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth of discharge of a rack </t>
+  </si>
+  <si>
     <t>B_E_CHARGE_AC</t>
   </si>
   <si>
@@ -314,12 +323,30 @@
     <t>Battery reactive power AC</t>
   </si>
   <si>
+    <t>B_RECTTIFIER_TOT_I_DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total current of rectifiers </t>
+  </si>
+  <si>
+    <t>B_RECTTIFIER_TOT_P_DC</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total battery rectifier dc power </t>
+  </si>
+  <si>
+    <t>B_RECTTIFIER_TOT_U_DC_PCS</t>
+  </si>
+  <si>
+    <t>Total voltage of rectifiers PCS_DC side</t>
+  </si>
+  <si>
     <t>B_SOC</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>State of Charge</t>
   </si>
   <si>
@@ -329,6 +356,12 @@
     <t>State of charge (nominal capacity)</t>
   </si>
   <si>
+    <t>B_SOE</t>
+  </si>
+  <si>
+    <t>State of energy of a rack</t>
+  </si>
+  <si>
     <t>B_SOH</t>
   </si>
   <si>
@@ -435,6 +468,12 @@
   </si>
   <si>
     <t>Open circuit voltage</t>
+  </si>
+  <si>
+    <t>B_WORKING_M_COUNT</t>
+  </si>
+  <si>
+    <t>Total number of working battery modules in a rack</t>
   </si>
   <si>
     <t>T[1..x]</t>
@@ -816,7 +855,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,7 +866,7 @@
     <col min="1" max="1" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="34.135" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="56.558" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="58.843" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="36.42" bestFit="true" customWidth="true" style="0"/>
@@ -1061,10 +1100,10 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1072,13 +1111,13 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1086,13 +1125,13 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1100,13 +1139,13 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1114,13 +1153,13 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1128,13 +1167,13 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1142,13 +1181,13 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1156,13 +1195,13 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1170,13 +1209,13 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1184,13 +1223,13 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1198,10 +1237,10 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
@@ -1229,10 +1268,10 @@
         <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1240,13 +1279,13 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1254,10 +1293,13 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1265,10 +1307,10 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1276,9 +1318,6 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" t="s">
         <v>80</v>
       </c>
       <c r="D29" t="s">
@@ -1293,10 +1332,10 @@
         <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1304,10 +1343,10 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
         <v>86</v>
@@ -1320,8 +1359,11 @@
       <c r="B32" t="s">
         <v>87</v>
       </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1329,9 +1371,6 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" t="s">
         <v>90</v>
       </c>
       <c r="D33" t="s">
@@ -1346,10 +1385,10 @@
         <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1357,13 +1396,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1371,10 +1410,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
         <v>98</v>
@@ -1402,7 +1441,7 @@
         <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
         <v>103</v>
@@ -1416,10 +1455,10 @@
         <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1427,10 +1466,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
         <v>108</v>
@@ -1444,10 +1483,10 @@
         <v>109</v>
       </c>
       <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
         <v>110</v>
-      </c>
-      <c r="D41" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1455,13 +1494,13 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
         <v>112</v>
-      </c>
-      <c r="C42" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1469,13 +1508,13 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
         <v>114</v>
-      </c>
-      <c r="C43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1483,13 +1522,13 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
         <v>116</v>
-      </c>
-      <c r="C44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1497,10 +1536,10 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" t="s">
         <v>118</v>
-      </c>
-      <c r="C45" t="s">
-        <v>110</v>
       </c>
       <c r="D45" t="s">
         <v>119</v>
@@ -1514,10 +1553,10 @@
         <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1525,13 +1564,13 @@
         <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1539,13 +1578,13 @@
         <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1553,13 +1592,13 @@
         <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1567,13 +1606,13 @@
         <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1581,13 +1620,13 @@
         <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1595,13 +1634,13 @@
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1609,13 +1648,13 @@
         <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1623,13 +1662,13 @@
         <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1637,13 +1676,13 @@
         <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1651,13 +1690,13 @@
         <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1665,10 +1704,13 @@
         <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="C57" t="s">
+        <v>88</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1676,10 +1718,13 @@
         <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="C58" t="s">
+        <v>88</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1687,10 +1732,13 @@
         <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="C59" t="s">
+        <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1698,10 +1746,82 @@
         <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="C60" t="s">
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/battery.xlsx
+++ b/import-specification/devices/battery.xlsx
@@ -149,7 +149,7 @@
     <t>%</t>
   </si>
   <si>
-    <t xml:space="preserve">Depth of discharge of a rack </t>
+    <t>Depth of discharge of a rack</t>
   </si>
   <si>
     <t>B_E_CHARGE_AC</t>
@@ -326,7 +326,7 @@
     <t>B_RECTTIFIER_TOT_I_DC</t>
   </si>
   <si>
-    <t xml:space="preserve">Total current of rectifiers </t>
+    <t>Total current of rectifiers</t>
   </si>
   <si>
     <t>B_RECTTIFIER_TOT_P_DC</t>
@@ -335,7 +335,7 @@
     <t>kW</t>
   </si>
   <si>
-    <t xml:space="preserve">Total battery rectifier dc power </t>
+    <t>Total battery rectifier dc power</t>
   </si>
   <si>
     <t>B_RECTTIFIER_TOT_U_DC_PCS</t>
@@ -1309,6 +1309,9 @@
       <c r="B28" t="s">
         <v>78</v>
       </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
       <c r="D28" t="s">
         <v>79</v>
       </c>
@@ -1320,6 +1323,9 @@
       <c r="B29" t="s">
         <v>80</v>
       </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
       <c r="D29" t="s">
         <v>81</v>
       </c>
@@ -1372,6 +1378,9 @@
       </c>
       <c r="B33" t="s">
         <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
       </c>
       <c r="D33" t="s">
         <v>91</v>

--- a/import-specification/devices/battery.xlsx
+++ b/import-specification/devices/battery.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
   <si>
     <t>Field Type</t>
   </si>
@@ -221,6 +221,12 @@
     <t>Currently stored energy</t>
   </si>
   <si>
+    <t>B_FCE_COUNT</t>
+  </si>
+  <si>
+    <t>FCE count (full cycle equivalent)</t>
+  </si>
+  <si>
     <t>B_F_AC</t>
   </si>
   <si>
@@ -230,6 +236,12 @@
     <t>Grid frequency</t>
   </si>
   <si>
+    <t>B_INV_COUNT</t>
+  </si>
+  <si>
+    <t>Number of connected inverters</t>
+  </si>
+  <si>
     <t>B_I_AC</t>
   </si>
   <si>
@@ -291,6 +303,12 @@
   </si>
   <si>
     <t>Discharge end voltage</t>
+  </si>
+  <si>
+    <t>B_LOGIC_BAT_COUNT</t>
+  </si>
+  <si>
+    <t>Number of connected logical batteries (combination of racks)</t>
   </si>
   <si>
     <t>B_OT_TOTAL</t>
@@ -855,7 +873,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -866,7 +884,7 @@
     <col min="1" max="1" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="34.135" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="58.843" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="71.84" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="36.42" bestFit="true" customWidth="true" style="0"/>
@@ -1253,11 +1271,8 @@
       <c r="B24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1265,13 +1280,13 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>72</v>
-      </c>
-      <c r="D25" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1279,13 +1294,10 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
         <v>74</v>
-      </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1293,10 +1305,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
         <v>76</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
       </c>
       <c r="D27" t="s">
         <v>77</v>
@@ -1310,7 +1322,7 @@
         <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
         <v>79</v>
@@ -1324,7 +1336,7 @@
         <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
         <v>81</v>
@@ -1338,10 +1350,10 @@
         <v>82</v>
       </c>
       <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
         <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1349,13 +1361,13 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
         <v>85</v>
-      </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1363,13 +1375,13 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
         <v>87</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>88</v>
-      </c>
-      <c r="D32" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1377,13 +1389,13 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
         <v>90</v>
-      </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1391,13 +1403,13 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
         <v>92</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>93</v>
-      </c>
-      <c r="D34" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1405,13 +1417,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
         <v>95</v>
-      </c>
-      <c r="C35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1419,13 +1431,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
         <v>97</v>
-      </c>
-      <c r="C36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1433,13 +1442,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
         <v>99</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>100</v>
-      </c>
-      <c r="D37" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1447,13 +1456,13 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
         <v>102</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1461,13 +1470,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
         <v>104</v>
-      </c>
-      <c r="C39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1475,13 +1484,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
         <v>107</v>
-      </c>
-      <c r="C40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1489,13 +1498,13 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
         <v>109</v>
-      </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1503,10 +1512,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
         <v>111</v>
-      </c>
-      <c r="C42" t="s">
-        <v>43</v>
       </c>
       <c r="D42" t="s">
         <v>112</v>
@@ -1520,7 +1529,7 @@
         <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
         <v>114</v>
@@ -1548,10 +1557,10 @@
         <v>117</v>
       </c>
       <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
         <v>118</v>
-      </c>
-      <c r="D45" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1559,13 +1568,13 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s">
         <v>120</v>
-      </c>
-      <c r="C46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1573,13 +1582,13 @@
         <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1587,13 +1596,13 @@
         <v>38</v>
       </c>
       <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" t="s">
         <v>125</v>
-      </c>
-      <c r="C48" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1601,10 +1610,10 @@
         <v>38</v>
       </c>
       <c r="B49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" t="s">
         <v>127</v>
-      </c>
-      <c r="C49" t="s">
-        <v>121</v>
       </c>
       <c r="D49" t="s">
         <v>128</v>
@@ -1618,7 +1627,7 @@
         <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D50" t="s">
         <v>130</v>
@@ -1632,7 +1641,7 @@
         <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
         <v>132</v>
@@ -1646,7 +1655,7 @@
         <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
         <v>134</v>
@@ -1660,7 +1669,7 @@
         <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D53" t="s">
         <v>136</v>
@@ -1674,7 +1683,7 @@
         <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
         <v>138</v>
@@ -1688,7 +1697,7 @@
         <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D55" t="s">
         <v>140</v>
@@ -1702,7 +1711,7 @@
         <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D56" t="s">
         <v>142</v>
@@ -1716,7 +1725,7 @@
         <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D57" t="s">
         <v>144</v>
@@ -1730,7 +1739,7 @@
         <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
         <v>146</v>
@@ -1744,7 +1753,7 @@
         <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
         <v>148</v>
@@ -1758,7 +1767,7 @@
         <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D60" t="s">
         <v>150</v>
@@ -1771,6 +1780,9 @@
       <c r="B61" t="s">
         <v>151</v>
       </c>
+      <c r="C61" t="s">
+        <v>92</v>
+      </c>
       <c r="D61" t="s">
         <v>152</v>
       </c>
@@ -1783,7 +1795,7 @@
         <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D62" t="s">
         <v>154</v>
@@ -1796,6 +1808,9 @@
       <c r="B63" t="s">
         <v>155</v>
       </c>
+      <c r="C63" t="s">
+        <v>92</v>
+      </c>
       <c r="D63" t="s">
         <v>156</v>
       </c>
@@ -1818,6 +1833,9 @@
       <c r="B65" t="s">
         <v>159</v>
       </c>
+      <c r="C65" t="s">
+        <v>127</v>
+      </c>
       <c r="D65" t="s">
         <v>160</v>
       </c>
@@ -1831,6 +1849,39 @@
       </c>
       <c r="D66" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/battery.xlsx
+++ b/import-specification/devices/battery.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t>Field Type</t>
   </si>
@@ -221,12 +221,6 @@
     <t>Currently stored energy</t>
   </si>
   <si>
-    <t>B_FCE_COUNT</t>
-  </si>
-  <si>
-    <t>FCE count (full cycle equivalent)</t>
-  </si>
-  <si>
     <t>B_F_AC</t>
   </si>
   <si>
@@ -236,12 +230,6 @@
     <t>Grid frequency</t>
   </si>
   <si>
-    <t>B_INV_COUNT</t>
-  </si>
-  <si>
-    <t>Number of connected inverters</t>
-  </si>
-  <si>
     <t>B_I_AC</t>
   </si>
   <si>
@@ -303,12 +291,6 @@
   </si>
   <si>
     <t>Discharge end voltage</t>
-  </si>
-  <si>
-    <t>B_LOGIC_BAT_COUNT</t>
-  </si>
-  <si>
-    <t>Number of connected logical batteries (combination of racks)</t>
   </si>
   <si>
     <t>B_OT_TOTAL</t>
@@ -873,7 +855,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -884,7 +866,7 @@
     <col min="1" max="1" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="34.135" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="71.84" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="58.843" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="36.42" bestFit="true" customWidth="true" style="0"/>
@@ -1271,8 +1253,11 @@
       <c r="B24" t="s">
         <v>68</v>
       </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1280,13 +1265,13 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1294,10 +1279,13 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1305,10 +1293,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
         <v>77</v>
@@ -1322,7 +1310,7 @@
         <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
         <v>79</v>
@@ -1336,7 +1324,7 @@
         <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
         <v>81</v>
@@ -1350,10 +1338,10 @@
         <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1361,13 +1349,13 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1375,13 +1363,13 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1389,13 +1377,13 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1403,13 +1391,13 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1417,13 +1405,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1431,10 +1419,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1442,13 +1433,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1456,13 +1447,13 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1470,13 +1461,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,13 +1475,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1498,13 +1489,13 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1512,10 +1503,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
         <v>112</v>
@@ -1529,7 +1520,7 @@
         <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
         <v>114</v>
@@ -1557,10 +1548,10 @@
         <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1568,13 +1559,13 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1582,13 +1573,13 @@
         <v>38</v>
       </c>
       <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
         <v>121</v>
       </c>
-      <c r="C47" t="s">
-        <v>43</v>
-      </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1596,13 +1587,13 @@
         <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1610,10 +1601,10 @@
         <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
         <v>128</v>
@@ -1627,7 +1618,7 @@
         <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
         <v>130</v>
@@ -1641,7 +1632,7 @@
         <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s">
         <v>132</v>
@@ -1655,7 +1646,7 @@
         <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
         <v>134</v>
@@ -1669,7 +1660,7 @@
         <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
         <v>136</v>
@@ -1683,7 +1674,7 @@
         <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
         <v>138</v>
@@ -1697,7 +1688,7 @@
         <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
         <v>140</v>
@@ -1711,7 +1702,7 @@
         <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
         <v>142</v>
@@ -1725,7 +1716,7 @@
         <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D57" t="s">
         <v>144</v>
@@ -1739,7 +1730,7 @@
         <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D58" t="s">
         <v>146</v>
@@ -1753,7 +1744,7 @@
         <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
         <v>148</v>
@@ -1767,7 +1758,7 @@
         <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
         <v>150</v>
@@ -1780,9 +1771,6 @@
       <c r="B61" t="s">
         <v>151</v>
       </c>
-      <c r="C61" t="s">
-        <v>92</v>
-      </c>
       <c r="D61" t="s">
         <v>152</v>
       </c>
@@ -1795,7 +1783,7 @@
         <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
         <v>154</v>
@@ -1808,9 +1796,6 @@
       <c r="B63" t="s">
         <v>155</v>
       </c>
-      <c r="C63" t="s">
-        <v>92</v>
-      </c>
       <c r="D63" t="s">
         <v>156</v>
       </c>
@@ -1833,9 +1818,6 @@
       <c r="B65" t="s">
         <v>159</v>
       </c>
-      <c r="C65" t="s">
-        <v>127</v>
-      </c>
       <c r="D65" t="s">
         <v>160</v>
       </c>
@@ -1849,39 +1831,6 @@
       </c>
       <c r="D66" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" t="s">
-        <v>163</v>
-      </c>
-      <c r="D67" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" t="s">
-        <v>165</v>
-      </c>
-      <c r="D68" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69" t="s">
-        <v>167</v>
-      </c>
-      <c r="D69" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
